--- a/package structure.xlsx
+++ b/package structure.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>application</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +161,14 @@
   </si>
   <si>
     <t>transport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activatable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -614,10 +623,10 @@
     <col min="1" max="1" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.375" style="3" bestFit="1" customWidth="1"/>
@@ -1331,4 +1340,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F14:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>